--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
   <si>
     <t>description</t>
   </si>
@@ -223,9 +223,6 @@
     <t>stype</t>
   </si>
   <si>
-    <t>unstar</t>
-  </si>
-  <si>
     <t>oro</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>sfc slope type for lsm ~ slope Dominant category</t>
   </si>
   <si>
-    <t>orography</t>
-  </si>
-  <si>
     <t>unfiltered orography</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>topoCell or topoPoint</t>
   </si>
   <si>
-    <t>landFraction?</t>
-  </si>
-  <si>
     <t>n x number_of_soil_layers (2)</t>
   </si>
   <si>
@@ -530,6 +521,21 @@
   </si>
   <si>
     <t>GFS_FV3</t>
+  </si>
+  <si>
+    <t>fv_land.res</t>
+  </si>
+  <si>
+    <t>orography (land fraction)</t>
+  </si>
+  <si>
+    <t>landFraction</t>
+  </si>
+  <si>
+    <t>uustar</t>
+  </si>
+  <si>
+    <t>mg_drag.res</t>
   </si>
 </sst>
 </file>
@@ -593,8 +599,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -641,7 +649,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -662,6 +670,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -682,6 +691,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1011,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1045,13 +1055,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1065,321 +1075,333 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="H3" s="1" t="s">
-        <v>159</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -1388,12 +1410,12 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1402,12 +1424,12 @@
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1416,12 +1438,12 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -1430,12 +1452,12 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1444,43 +1466,43 @@
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -1489,40 +1511,40 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1531,12 +1553,12 @@
         <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -1545,21 +1567,18 @@
         <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -1570,7 +1589,13 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -1581,13 +1606,13 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -1598,13 +1623,7 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -1615,7 +1634,10 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -1626,10 +1648,7 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -1640,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1651,40 +1670,40 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -1692,10 +1711,13 @@
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -1703,13 +1725,16 @@
         <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -1717,16 +1742,16 @@
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -1734,16 +1759,10 @@
         <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
-      </c>
-      <c r="F53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -1754,18 +1773,7 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1808,145 +1816,145 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\dyn_phy_couple_exchange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0E944-EF9E-41B7-B163-F138B3217F99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29640" yWindow="0" windowWidth="25600" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
   <si>
     <t>description</t>
   </si>
@@ -307,246 +313,279 @@
     <t>sfc slope type for lsm ~ slope Dominant category</t>
   </si>
   <si>
+    <t>sea ice thickness</t>
+  </si>
+  <si>
+    <t>canopy water</t>
+  </si>
+  <si>
+    <t>fm parameter from PBL scheme</t>
+  </si>
+  <si>
+    <t>fm at 10m - Ratio of sigma level 1 wind and 10m wind</t>
+  </si>
+  <si>
+    <t>sfc_fld%tprcp - total precipitation</t>
+  </si>
+  <si>
+    <t>sfc_fld%srflag - snow/rain flag for precipitation</t>
+  </si>
+  <si>
+    <t>liquid soil moisture</t>
+  </si>
+  <si>
+    <t>total soil moisture</t>
+  </si>
+  <si>
+    <t>soil temperature (2 layers)</t>
+  </si>
+  <si>
+    <t>water equiv of accumulated snow depth (kg/m**2) over land and sea ice</t>
+  </si>
+  <si>
+    <t>2 meter temperature</t>
+  </si>
+  <si>
+    <t>2 meter humidity</t>
+  </si>
+  <si>
+    <t>global_slmask.t126.grb</t>
+  </si>
+  <si>
+    <t>global_sstclim.2x2.grb</t>
+  </si>
+  <si>
+    <t>global_snoclim.1.875.grb</t>
+  </si>
+  <si>
+    <t>global_zorclim.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_snoalb.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_albedo4.1x1.grb or global_albedo4.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_slope.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_shdmin.0.144x0.144.grb</t>
+  </si>
+  <si>
+    <t>global_shdmax.0.144x0.144.grb</t>
+  </si>
+  <si>
+    <t>global_tg3clim.2.6x1.5.grb</t>
+  </si>
+  <si>
+    <t>global_vegfrac.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_vegtype.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_soiltype.1x1.grb</t>
+  </si>
+  <si>
+    <t>global_soilmcpc.1x1.grb</t>
+  </si>
+  <si>
+    <t>WRF geog files</t>
+  </si>
+  <si>
+    <t>orogwd*</t>
+  </si>
+  <si>
+    <t>maxsnowalb*</t>
+  </si>
+  <si>
+    <t>islope*</t>
+  </si>
+  <si>
+    <t>topo*</t>
+  </si>
+  <si>
+    <t>soiltemp_1deg</t>
+  </si>
+  <si>
+    <t>FNL grib2</t>
+  </si>
+  <si>
+    <t>mcv_input</t>
+  </si>
+  <si>
+    <t>phii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsl </t>
+  </si>
+  <si>
+    <t>prslk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgr  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugrs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vgrs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvl  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgrs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qgrs </t>
+  </si>
+  <si>
+    <t>interface geopotential height</t>
+  </si>
+  <si>
+    <t>model level pressure in Pa</t>
+  </si>
+  <si>
+    <t>layer geopotential height</t>
+  </si>
+  <si>
+    <t>model layer mean pressure Pa</t>
+  </si>
+  <si>
+    <t>exner function = (p/p0)**rocp</t>
+  </si>
+  <si>
+    <t>surface pressure (Pa) real</t>
+  </si>
+  <si>
+    <t>u component of layer wind</t>
+  </si>
+  <si>
+    <t>v component of layer wind</t>
+  </si>
+  <si>
+    <t>layer mean vertical velocity in pa/sec</t>
+  </si>
+  <si>
+    <t>model layer mean temperature in k</t>
+  </si>
+  <si>
+    <t>layer mean tracer concentration</t>
+  </si>
+  <si>
+    <t>sgh or sgh30</t>
+  </si>
+  <si>
+    <t>see 10-23</t>
+  </si>
+  <si>
+    <t>n x number_of_soil_layers (2)</t>
+  </si>
+  <si>
+    <t>forecast hour parameter from PBL scheme</t>
+  </si>
+  <si>
+    <t>deep soil temperature (at 500cm)</t>
+  </si>
+  <si>
+    <t>TMP_P0_L1_GLL0</t>
+  </si>
+  <si>
+    <t>TSOIL_P0_2L106_GLL0 (4)</t>
+  </si>
+  <si>
+    <t>SOILW_P0_2L106_GLL0 (4)?</t>
+  </si>
+  <si>
+    <t>LANDN_P0_L1_GLL0</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>WEASD_P0_L1_GLL0</t>
+  </si>
+  <si>
+    <t>GFS_FV3</t>
+  </si>
+  <si>
+    <t>fv_land.res</t>
+  </si>
+  <si>
+    <t>landFraction</t>
+  </si>
+  <si>
+    <t>uustar</t>
+  </si>
+  <si>
+    <t>mg_drag.res</t>
+  </si>
+  <si>
+    <t>topoPoint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2m</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>q2m</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>orography (land fraction)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>unfiltered orography</t>
-  </si>
-  <si>
-    <t>sea ice thickness</t>
-  </si>
-  <si>
-    <t>canopy water</t>
-  </si>
-  <si>
-    <t>fm parameter from PBL scheme</t>
-  </si>
-  <si>
-    <t>fm at 10m - Ratio of sigma level 1 wind and 10m wind</t>
-  </si>
-  <si>
-    <t>sfc_fld%tprcp - total precipitation</t>
-  </si>
-  <si>
-    <t>sfc_fld%srflag - snow/rain flag for precipitation</t>
-  </si>
-  <si>
-    <t>liquid soil moisture</t>
-  </si>
-  <si>
-    <t>total soil moisture</t>
-  </si>
-  <si>
-    <t>soil temperature (2 layers)</t>
-  </si>
-  <si>
-    <t>water equiv of accumulated snow depth (kg/m**2) over land and sea ice</t>
-  </si>
-  <si>
-    <t>2 meter temperature</t>
-  </si>
-  <si>
-    <t>2 meter humidity</t>
-  </si>
-  <si>
-    <t>global_slmask.t126.grb</t>
-  </si>
-  <si>
-    <t>global_sstclim.2x2.grb</t>
-  </si>
-  <si>
-    <t>global_snoclim.1.875.grb</t>
-  </si>
-  <si>
-    <t>global_zorclim.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_snoalb.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_albedo4.1x1.grb or global_albedo4.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_slope.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_shdmin.0.144x0.144.grb</t>
-  </si>
-  <si>
-    <t>global_shdmax.0.144x0.144.grb</t>
-  </si>
-  <si>
-    <t>global_tg3clim.2.6x1.5.grb</t>
-  </si>
-  <si>
-    <t>global_vegfrac.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_vegtype.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_soiltype.1x1.grb</t>
-  </si>
-  <si>
-    <t>global_soilmcpc.1x1.grb</t>
-  </si>
-  <si>
-    <t>WRF geog files</t>
-  </si>
-  <si>
-    <t>orogwd*</t>
-  </si>
-  <si>
-    <t>maxsnowalb*</t>
-  </si>
-  <si>
-    <t>islope*</t>
-  </si>
-  <si>
-    <t>topo*</t>
-  </si>
-  <si>
-    <t>soiltemp_1deg</t>
-  </si>
-  <si>
-    <t>FNL grib2</t>
-  </si>
-  <si>
-    <t>mcv_input</t>
-  </si>
-  <si>
-    <t>phii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsi </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>exner</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cube</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_cube</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exner function at interface</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prsik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsl </t>
-  </si>
-  <si>
-    <t>prslk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugrs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vgrs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvl  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tgrs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">qgrs </t>
-  </si>
-  <si>
-    <t>interface geopotential height</t>
-  </si>
-  <si>
-    <t>model level pressure in Pa</t>
-  </si>
-  <si>
-    <t>Exner function at interface</t>
-  </si>
-  <si>
-    <t>layer geopotential height</t>
-  </si>
-  <si>
-    <t>model layer mean pressure Pa</t>
-  </si>
-  <si>
-    <t>exner function = (p/p0)**rocp</t>
-  </si>
-  <si>
-    <t>surface pressure (Pa) real</t>
-  </si>
-  <si>
-    <t>u component of layer wind</t>
-  </si>
-  <si>
-    <t>v component of layer wind</t>
-  </si>
-  <si>
-    <t>layer mean vertical velocity in pa/sec</t>
-  </si>
-  <si>
-    <t>model layer mean temperature in k</t>
-  </si>
-  <si>
-    <t>layer mean tracer concentration</t>
-  </si>
-  <si>
-    <t>sgh or sgh30</t>
-  </si>
-  <si>
-    <t>see 10-23</t>
-  </si>
-  <si>
-    <t>topoCell or topoPoint</t>
-  </si>
-  <si>
-    <t>n x number_of_soil_layers (2)</t>
-  </si>
-  <si>
-    <t>forecast hour parameter from PBL scheme</t>
-  </si>
-  <si>
-    <t>deep soil temperature (at 500cm)</t>
-  </si>
-  <si>
-    <t>TMP_P0_L1_GLL0</t>
-  </si>
-  <si>
-    <t>TSOIL_P0_2L106_GLL0 (4)</t>
-  </si>
-  <si>
-    <t>SOILW_P0_2L106_GLL0 (4)?</t>
-  </si>
-  <si>
-    <t>LANDN_P0_L1_GLL0</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>WEASD_P0_L1_GLL0</t>
-  </si>
-  <si>
-    <t>GFS_FV3</t>
-  </si>
-  <si>
-    <t>fv_land.res</t>
-  </si>
-  <si>
-    <t>orography (land fraction)</t>
-  </si>
-  <si>
-    <t>landFraction</t>
-  </si>
-  <si>
-    <t>uustar</t>
-  </si>
-  <si>
-    <t>mg_drag.res</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,7 +593,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -562,14 +601,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -577,8 +616,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -650,52 +696,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1020,25 +1074,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.84765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.34765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1055,16 +1110,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1075,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1092,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1120,10 +1175,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1134,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1159,13 +1214,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1173,10 +1228,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1187,10 +1242,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1201,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1212,10 +1267,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1226,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1240,10 +1295,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1254,10 +1309,10 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1268,10 +1323,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1282,10 +1337,10 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1296,10 +1351,10 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1310,10 +1365,10 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1324,7 +1379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1346,7 +1401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -1368,7 +1423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1379,13 +1434,13 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -1396,10 +1451,10 @@
         <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1410,10 +1465,10 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1424,10 +1479,10 @@
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -1438,10 +1493,10 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -1452,10 +1507,10 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -1466,10 +1521,10 @@
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -1480,13 +1535,13 @@
         <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -1497,10 +1552,10 @@
         <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1511,10 +1566,10 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>63</v>
       </c>
@@ -1522,13 +1577,13 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -1539,10 +1594,10 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -1553,10 +1608,10 @@
         <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -1567,12 +1622,12 @@
         <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -1581,7 +1636,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>67</v>
       </c>
@@ -1589,16 +1644,16 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>68</v>
       </c>
@@ -1606,16 +1661,16 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>69</v>
       </c>
@@ -1623,10 +1678,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -1634,13 +1689,13 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>71</v>
       </c>
@@ -1648,10 +1703,10 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>72</v>
       </c>
@@ -1659,10 +1714,10 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>73</v>
       </c>
@@ -1670,10 +1725,10 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>75</v>
       </c>
@@ -1681,10 +1736,10 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>74</v>
       </c>
@@ -1692,10 +1747,10 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>76</v>
       </c>
@@ -1703,58 +1758,58 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>79</v>
       </c>
       <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" t="s">
         <v>157</v>
       </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -1762,10 +1817,13 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
+        <v>105</v>
+      </c>
+      <c r="H53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>81</v>
       </c>
@@ -1773,10 +1831,14 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="H54" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1788,21 +1850,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.34765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1816,149 +1879,163 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
         <v>143</v>
       </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
         <v>144</v>
       </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
         <v>146</v>
       </c>
-      <c r="F6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
         <v>147</v>
       </c>
-      <c r="F7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
         <v>148</v>
       </c>
-      <c r="F8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
         <v>149</v>
       </c>
-      <c r="F9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>150</v>
       </c>
-      <c r="F10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\dyn_phy_couple_exchange\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0E944-EF9E-41B7-B163-F138B3217F99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
     <sheet name="ICBC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
   <si>
     <t>description</t>
   </si>
@@ -307,9 +301,6 @@
     <t>soil type</t>
   </si>
   <si>
-    <t>boundary layer parameter</t>
-  </si>
-  <si>
     <t>sfc slope type for lsm ~ slope Dominant category</t>
   </si>
   <si>
@@ -319,12 +310,6 @@
     <t>canopy water</t>
   </si>
   <si>
-    <t>fm parameter from PBL scheme</t>
-  </si>
-  <si>
-    <t>fm at 10m - Ratio of sigma level 1 wind and 10m wind</t>
-  </si>
-  <si>
     <t>sfc_fld%tprcp - total precipitation</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
   </si>
   <si>
     <t>n x number_of_soil_layers (2)</t>
-  </si>
-  <si>
-    <t>forecast hour parameter from PBL scheme</t>
   </si>
   <si>
     <t>deep soil temperature (at 500cm)</t>
@@ -574,14 +556,71 @@
   </si>
   <si>
     <t>prsik</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary layer parameter,
+frictiobal wind [numeric] at surface layer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in GFS only need for land
+for ocean:
+ustar(i) = sqrt(grav * z0 / charnock)
+z0: surface roughness length (m)
+charnock=.014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm parameter from PBL scheme
+stability profile function [numeric] for momentum at surface layer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fm(i)   = log((z0max+z1(i)) / z0max)
+z0max   = max(1.0e-6, min(z0,z1(i)))</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in WRF physics:
+ FM: integrated stability function for momentum
+FM=GZ1OZ0(I)-PSIM(I)
+GZ1OZ0(I):log(z/z0) where z0 is roughness length
+PSIM:similarity stability function for momentum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fh(i)   = log((ztmax+z1(i)) / ztmax)
+ ztmax = z0max*exp( - (1.- sigmaf(i))*(1.- sigmaf(i)) * czilc*ca*sqrt(ustar(i)*(0.01/1.5e-05)))
+czilc=0.8,ca=.4 is the von karman constant
+ sigmaf(i)   = max( Sfcprop%vfrac(i),0.01 )</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FH=AMAX1(GZ1OZ0(I)-PSIH(I),2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fm at 10m - Ratio of sigma level 1 wind and 10m wind
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast hour parameter from PBL scheme
+stability profile function [numeric] for heat at surface</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> f10m(i) = fm10(i) / fm(i)
+ u10m(i) = f10m(i) * u1(i)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,10 +729,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,26 +1116,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="22.6484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.84765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.34765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1110,16 +1152,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1130,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1147,13 +1189,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1175,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1189,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1214,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
         <v>166</v>
       </c>
-      <c r="H8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1228,10 +1270,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1242,10 +1284,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1267,10 +1309,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1281,10 +1323,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1295,10 +1337,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1309,10 +1351,10 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1323,10 +1365,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1337,10 +1379,10 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1351,10 +1393,10 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1365,10 +1407,10 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1390,7 +1432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1412,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -1423,7 +1465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1434,13 +1476,13 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -1451,10 +1493,10 @@
         <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1465,10 +1507,10 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1479,10 +1521,10 @@
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>57</v>
       </c>
@@ -1493,10 +1535,10 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -1507,10 +1549,10 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -1521,10 +1563,10 @@
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -1532,16 +1574,16 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -1552,10 +1594,10 @@
         <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1566,10 +1608,10 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>63</v>
       </c>
@@ -1577,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -1594,10 +1636,10 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -1608,10 +1650,10 @@
         <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -1622,21 +1664,24 @@
         <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="71.25">
       <c r="B39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
         <v>67</v>
       </c>
@@ -1644,16 +1689,16 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>68</v>
       </c>
@@ -1661,16 +1706,16 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>69</v>
       </c>
@@ -1678,10 +1723,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -1689,13 +1734,13 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" t="s">
         <v>71</v>
       </c>
@@ -1703,43 +1748,58 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="117.75" customHeight="1">
       <c r="B45" t="s">
         <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="85.5">
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="38.25" customHeight="1">
       <c r="B47" t="s">
         <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>74</v>
       </c>
@@ -1747,10 +1807,10 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" t="s">
         <v>76</v>
       </c>
@@ -1758,58 +1818,58 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" t="s">
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" t="s">
         <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" t="s">
         <v>79</v>
       </c>
       <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -1817,13 +1877,13 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="s">
         <v>81</v>
       </c>
@@ -1831,10 +1891,10 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1910,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.84765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.34765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1879,157 +1939,157 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>140</v>
       </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>142</v>
       </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>143</v>
       </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
         <v>133</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>145</v>
       </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
         <v>135</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
         <v>136</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="F10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\dyn_phy_couple_exchange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5799AB5F-2C6D-4B08-AF49-DA73F527423F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" tabRatio="500"/>
+    <workbookView xWindow="17745" yWindow="5580" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="228">
   <si>
     <t>description</t>
   </si>
@@ -175,9 +181,6 @@
     <t>sncovr</t>
   </si>
   <si>
-    <t>snow cover in fraction</t>
-  </si>
-  <si>
     <t>snoalb</t>
   </si>
   <si>
@@ -268,22 +271,7 @@
     <t>q2m</t>
   </si>
   <si>
-    <t>mean vis albedo with strong cosz dependency</t>
-  </si>
-  <si>
-    <t>mean nir albedo with strong cosz dependency</t>
-  </si>
-  <si>
-    <t>mean vis albedo with weak cosz dependency</t>
-  </si>
-  <si>
-    <t>mean nir albedo with weak cosz dependency</t>
-  </si>
-  <si>
     <t>fractional vegetation coverage with strong zenith angle for albedo</t>
-  </si>
-  <si>
-    <t>fractional vegetation coverage with   weak zenith angle for albedo</t>
   </si>
   <si>
     <t>min fractional coverage of green veg</t>
@@ -615,12 +603,190 @@
  u10m(i) = f10m(i) * u1(i)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>mean vis albedo with strong cosz dependency, visible black sky albedo at zenith 60 degree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean nir albedo with strong cosz dependency, near-ir black sky albedo at zenith 60 degree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fractional vegetation coverage with   weak zenith angle for albedo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean vis albedo with weak cosz dependency, visible white sky albedo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean nir albedo with weak cosz dependency, near-ir white sky albedo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow cover in fraction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zorl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">surface roughness in cm </t>
+  </si>
+  <si>
+    <t>xu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat content in dtl</t>
+  </si>
+  <si>
+    <t>salinity content in dtl</t>
+  </si>
+  <si>
+    <t>u-current content in dtl</t>
+  </si>
+  <si>
+    <t>v-current content in dtl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtl thickness</t>
+  </si>
+  <si>
+    <t>xtts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d(xt)/d(ts)</t>
+  </si>
+  <si>
+    <t>xzts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d(xz)/d(ts)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxl thickness</t>
+  </si>
+  <si>
+    <t>z_c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub-layer cooling thickness</t>
+  </si>
+  <si>
+    <t>c_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient1 to calculate d(tz)/d(ts)</t>
+  </si>
+  <si>
+    <t>c_d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient2 to calculate d(tz)/d(ts)</t>
+  </si>
+  <si>
+    <t>w_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient3 to calculate d(tz)/d(ts)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient4 to calculate d(tz)/d(ts)</t>
+  </si>
+  <si>
+    <t>ifd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>index to start dtlm run or not</t>
+  </si>
+  <si>
+    <t>qrain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensible heat flux due to rainfall (watts)</t>
+  </si>
+  <si>
+    <t>tsea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground surface temperature ( k )</t>
+  </si>
+  <si>
+    <t>d_conv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness of Free Convection Layer (FCL)</t>
+  </si>
+  <si>
+    <t>dt_cool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub-layer cooling amount</t>
+  </si>
+  <si>
+    <t>lsoil</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of soil layers</t>
+  </si>
+  <si>
+    <t>tref</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference Temperature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,15 +1282,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
@@ -1135,7 +1301,7 @@
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,16 +1318,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1172,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1189,13 +1355,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1217,10 +1383,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1231,10 +1397,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1256,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1270,10 +1436,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1284,10 +1450,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1309,10 +1475,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1323,10 +1489,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1337,10 +1503,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1351,10 +1517,10 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1365,10 +1531,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1379,10 +1545,10 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1393,10 +1559,10 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1407,10 +1573,10 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1421,7 +1587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1432,7 +1598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1454,7 +1620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -1462,287 +1628,284 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
         <v>108</v>
       </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="F32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
         <v>88</v>
       </c>
-      <c r="E33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="71.25">
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" t="s">
-        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -1750,157 +1913,331 @@
       <c r="D44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="117.75" customHeight="1">
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>72</v>
       </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="85.5">
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="38.25" customHeight="1">
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>174</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="H54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" t="s">
-        <v>165</v>
+      <c r="H55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1910,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1918,14 +2255,14 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1939,157 +2276,157 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="F5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>140</v>
       </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D13" t="s">
         <v>141</v>
       </c>
-      <c r="F7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\dyn_phy_couple_exchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5799AB5F-2C6D-4B08-AF49-DA73F527423F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F818BC-D4AF-4ECE-BE23-46077EC2050C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17745" yWindow="5580" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2055" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="230">
   <si>
     <t>description</t>
   </si>
@@ -780,6 +780,13 @@
   </si>
   <si>
     <t>Reference Temperature</t>
+  </si>
+  <si>
+    <t>cloud liquid water</t>
+  </si>
+  <si>
+    <t>liq_wat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1283,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2232,6 +2239,14 @@
       </c>
       <c r="D75" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/GFS_ICBC&SFC.xlsx
+++ b/GFS_ICBC&SFC.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\dyn_phy_couple_exchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choull\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F818BC-D4AF-4ECE-BE23-46077EC2050C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7396FDF9-6F16-4F1E-AA9B-5564B3CAD3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2055" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
-    <sheet name="ICBC" sheetId="2" r:id="rId2"/>
+    <sheet name="FV3_compare" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="ICBC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="245">
   <si>
     <t>description</t>
   </si>
@@ -136,15 +138,9 @@
     <t>hprime(ix,7) effective orographic length</t>
   </si>
   <si>
-    <t>hprime(ix,4) orographic asymmetry</t>
-  </si>
-  <si>
     <t>hprime(ix,5) orographic asymmetry</t>
   </si>
   <si>
-    <t>hprime(ix,6) orographic asymmetry</t>
-  </si>
-  <si>
     <t>hprime(ix,8) effective orographic length</t>
   </si>
   <si>
@@ -272,9 +268,6 @@
   </si>
   <si>
     <t>fractional vegetation coverage with strong zenith angle for albedo</t>
-  </si>
-  <si>
-    <t>min fractional coverage of green veg</t>
   </si>
   <si>
     <t>max fractnl cover of green veg (not used)</t>
@@ -788,12 +781,79 @@
     <t>liq_wat</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>substrate_temperature</t>
+  </si>
+  <si>
+    <t>vegetation_greenness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum_snow_albedo</t>
+  </si>
+  <si>
+    <t>leaf_area_index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible_black_sky_albedo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope_type</t>
+  </si>
+  <si>
+    <t>soil_type</t>
+  </si>
+  <si>
+    <t>vegetation_type</t>
+  </si>
+  <si>
+    <t>vtype</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV3 required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supported</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stype</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hprime(ix,4) orographic asymmetry</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hprime(ix,6) orographic asymmetry</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min fractional coverage of green veg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -834,6 +894,34 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -902,13 +990,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1292,23 +1384,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="A1:H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.84765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.59765625" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1325,16 +1417,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1345,13 +1437,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1362,13 +1454,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1390,10 +1482,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1404,10 +1496,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1418,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1429,13 +1521,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1443,10 +1535,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1457,10 +1549,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1482,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1493,13 +1585,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1507,13 +1599,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1521,13 +1613,13 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1538,10 +1630,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1549,13 +1641,13 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1563,13 +1655,13 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1577,676 +1669,676 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="76.5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="91.8" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+      <c r="G53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
         <v>185</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
         <v>186</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
         <v>188</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="D61" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+      <c r="D62" t="s">
         <v>198</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+      <c r="D63" t="s">
         <v>200</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+      <c r="D64" t="s">
         <v>202</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+      <c r="D65" t="s">
         <v>204</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="D66" t="s">
         <v>206</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+      <c r="D67" t="s">
         <v>208</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+      <c r="D68" t="s">
         <v>210</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+      <c r="D69" t="s">
         <v>212</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="D70" t="s">
         <v>214</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="D71" t="s">
         <v>216</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+      <c r="D72" t="s">
         <v>218</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+      <c r="D73" t="s">
         <v>220</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+      <c r="D74" t="s">
         <v>222</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+      <c r="D75" t="s">
         <v>224</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2262,6 +2354,1058 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90EECC7-FF49-4B8B-A3CD-D17A1584EC79}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.296875" customWidth="1"/>
+    <col min="2" max="2" width="14.046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287E312E-2CDF-4EDC-9EEF-D564204EDFBD}">
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="59.3984375" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
+    <col min="6" max="6" width="27.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="60.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2270,14 +3414,14 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.34765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2291,157 +3435,157 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>131</v>
       </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>132</v>
       </c>
-      <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
